--- a/public/excels/Danh_sách_công_việc.xlsx
+++ b/public/excels/Danh_sách_công_việc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -187,6 +187,21 @@
   </si>
   <si>
     <t>asdasDASDASDASDASDASDCZXCZXC</t>
+  </si>
+  <si>
+    <t>zxczx</t>
+  </si>
+  <si>
+    <t>2021-04-13</t>
+  </si>
+  <si>
+    <t>sczxc</t>
+  </si>
+  <si>
+    <t>2021-04-25</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
   </si>
 </sst>
 </file>
@@ -525,7 +540,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,6 +1191,40 @@
         <v>30</v>
       </c>
       <c r="E38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>190</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>191</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" t="s">
         <v>47</v>
       </c>
     </row>

--- a/public/excels/Danh_sách_công_việc.xlsx
+++ b/public/excels/Danh_sách_công_việc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -104,104 +104,58 @@
     <t>2021-04-12</t>
   </si>
   <si>
-    <t>mm</t>
+    <t>fix bug</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>2021-04-20</t>
+  </si>
+  <si>
+    <t>dasdasdas</t>
   </si>
   <si>
     <t>2021-04-17</t>
   </si>
   <si>
-    <t>2021-04-30</t>
-  </si>
-  <si>
-    <t>di lam</t>
+    <t>2021-04-18</t>
+  </si>
+  <si>
+    <t>dsada</t>
+  </si>
+  <si>
+    <t>2021-04-13</t>
+  </si>
+  <si>
+    <t>Tạm dừng</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>zcx</t>
+  </si>
+  <si>
+    <t>Chưa hoàn thành</t>
+  </si>
+  <si>
+    <t>di choi</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>sadas</t>
   </si>
   <si>
     <t>2021-04-15</t>
   </si>
   <si>
-    <t>di choi</t>
-  </si>
-  <si>
-    <t>2021-04-14</t>
-  </si>
-  <si>
-    <t>2021-04-16</t>
-  </si>
-  <si>
-    <t>di hoc</t>
-  </si>
-  <si>
-    <t>di boi</t>
-  </si>
-  <si>
-    <t>2021-04-24</t>
-  </si>
-  <si>
-    <t>1. sadasdas
-2. 2ewdasdas</t>
-  </si>
-  <si>
-    <t>1:hung di choi
-2:hung di chocusd</t>
-  </si>
-  <si>
-    <t>sasdasd asd</t>
-  </si>
-  <si>
-    <t>Tạm dừng</t>
-  </si>
-  <si>
-    <t>asdas</t>
-  </si>
-  <si>
-    <t>ddddd</t>
-  </si>
-  <si>
-    <t>dasdas</t>
-  </si>
-  <si>
-    <t>Chưa hoàn thành</t>
-  </si>
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>sadas</t>
-  </si>
-  <si>
-    <t>1:di hoc</t>
-  </si>
-  <si>
-    <t>2:di choi</t>
-  </si>
-  <si>
-    <t>3:di boi</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>dasdasd
-12312
-asdasd</t>
-  </si>
-  <si>
-    <t>asdasDASDASDASDASDASDCZXCZXC</t>
-  </si>
-  <si>
-    <t>zxczx</t>
-  </si>
-  <si>
-    <t>2021-04-13</t>
-  </si>
-  <si>
-    <t>sczxc</t>
-  </si>
-  <si>
-    <t>2021-04-25</t>
-  </si>
-  <si>
-    <t>2021-04-27</t>
+    <t>vvvvvv</t>
+  </si>
+  <si>
+    <t>hung</t>
   </si>
 </sst>
 </file>
@@ -540,7 +494,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -814,7 +768,7 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -825,30 +779,30 @@
         <v>163</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
@@ -856,19 +810,19 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -876,16 +830,16 @@
         <v>170</v>
       </c>
       <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
         <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -893,16 +847,16 @@
         <v>171</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -910,322 +864,33 @@
         <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>175</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>176</v>
-      </c>
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>177</v>
-      </c>
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
-        <v>178</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
-        <v>179</v>
-      </c>
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
-        <v>180</v>
-      </c>
-      <c r="B29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
-        <v>181</v>
-      </c>
-      <c r="B30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
-        <v>182</v>
-      </c>
-      <c r="B31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
-        <v>183</v>
-      </c>
-      <c r="B32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
-        <v>184</v>
-      </c>
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34">
-        <v>185</v>
-      </c>
-      <c r="B34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35">
-        <v>186</v>
-      </c>
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36">
-        <v>187</v>
-      </c>
-      <c r="B36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37">
-        <v>188</v>
-      </c>
-      <c r="B37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38">
-        <v>189</v>
-      </c>
-      <c r="B38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39">
-        <v>190</v>
-      </c>
-      <c r="B39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40">
-        <v>191</v>
-      </c>
-      <c r="B40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" t="s">
-        <v>60</v>
-      </c>
-      <c r="E40" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/public/excels/Danh_sách_công_việc.xlsx
+++ b/public/excels/Danh_sách_công_việc.xlsx
@@ -137,19 +137,19 @@
     <t>zcx</t>
   </si>
   <si>
+    <t>di choi</t>
+  </si>
+  <si>
+    <t>2021-04-16</t>
+  </si>
+  <si>
+    <t>sadas</t>
+  </si>
+  <si>
+    <t>2021-04-15</t>
+  </si>
+  <si>
     <t>Chưa hoàn thành</t>
-  </si>
-  <si>
-    <t>di choi</t>
-  </si>
-  <si>
-    <t>2021-04-21</t>
-  </si>
-  <si>
-    <t>sadas</t>
-  </si>
-  <si>
-    <t>2021-04-15</t>
   </si>
   <si>
     <t>vvvvvv</t>
@@ -494,7 +494,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,86 +519,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>67</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>85</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -606,16 +538,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -623,16 +555,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -640,16 +572,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -657,16 +589,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -674,16 +606,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -691,16 +623,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -708,16 +640,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
@@ -725,16 +657,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -742,16 +674,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -759,16 +691,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -776,33 +708,33 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
@@ -810,87 +742,155 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
+        <v>169</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>170</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>171</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>172</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
         <v>173</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B27" t="s">
         <v>46</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C27" t="s">
         <v>25</v>
       </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" t="s">
-        <v>40</v>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/public/excels/Danh_sách_công_việc.xlsx
+++ b/public/excels/Danh_sách_công_việc.xlsx
@@ -7,15 +7,17 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -156,6 +158,45 @@
   </si>
   <si>
     <t>hung</t>
+  </si>
+  <si>
+    <t>czxc</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>dasdddddd</t>
+  </si>
+  <si>
+    <t>vvvvv</t>
+  </si>
+  <si>
+    <t>bbbbb</t>
+  </si>
+  <si>
+    <t>dasd</t>
+  </si>
+  <si>
+    <t>2021-04-22</t>
+  </si>
+  <si>
+    <t>asdas</t>
+  </si>
+  <si>
+    <t>2021-04-25</t>
+  </si>
+  <si>
+    <t>di didiid</t>
+  </si>
+  <si>
+    <t>sadasd</t>
+  </si>
+  <si>
+    <t>fucking bitch</t>
+  </si>
+  <si>
+    <t>aaaaaaaaa</t>
   </si>
 </sst>
 </file>
@@ -169,7 +210,7 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -491,16 +532,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="4.451294" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="85.883789" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="12.69928" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12.69928" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="18.590698" bestFit="true" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -519,18 +567,86 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -538,16 +654,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -555,16 +671,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -572,16 +688,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -589,16 +705,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -606,16 +722,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -623,16 +739,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -640,16 +756,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
@@ -657,16 +773,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -674,16 +790,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -691,16 +807,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -708,33 +824,33 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
@@ -742,16 +858,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
         <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>31</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -759,16 +875,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -776,50 +892,50 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -827,30 +943,30 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
         <v>31</v>
@@ -861,16 +977,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
         <v>44</v>
@@ -878,23 +994,143 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>180</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>181</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>182</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>183</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>184</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>185</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>186</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <autoFilter ref="A1:E1"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/public/excels/Danh_sách_công_việc.xlsx
+++ b/public/excels/Danh_sách_công_việc.xlsx
@@ -9176,7 +9176,7 @@
     </row>
     <row r="503" spans="1:7">
       <c r="A503" s="7">
-        <v>651</v>
+        <v>1651</v>
       </c>
       <c r="B503" s="7" t="s">
         <v>64</v>
@@ -9193,7 +9193,7 @@
     </row>
     <row r="504" spans="1:7">
       <c r="A504" s="7">
-        <v>652</v>
+        <v>1652</v>
       </c>
       <c r="B504" s="7" t="s">
         <v>64</v>
@@ -9210,7 +9210,7 @@
     </row>
     <row r="505" spans="1:7">
       <c r="A505" s="7">
-        <v>653</v>
+        <v>1653</v>
       </c>
       <c r="B505" s="7" t="s">
         <v>64</v>

--- a/public/excels/Danh_sách_công_việc.xlsx
+++ b/public/excels/Danh_sách_công_việc.xlsx
@@ -656,7 +656,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G506"/>
+  <dimension ref="A1:G884"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6"/>
@@ -9226,11 +9226,6437 @@
       </c>
     </row>
     <row r="506" spans="1:7">
-      <c r="A506" s="7"/>
-      <c r="B506" s="7"/>
-      <c r="C506" s="7"/>
-      <c r="D506" s="7"/>
-      <c r="E506" s="7"/>
+      <c r="A506" s="7">
+        <v>1654</v>
+      </c>
+      <c r="B506" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C506" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D506" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E506" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7">
+      <c r="A507" s="7">
+        <v>1655</v>
+      </c>
+      <c r="B507" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C507" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D507" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E507" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7">
+      <c r="A508" s="7">
+        <v>1656</v>
+      </c>
+      <c r="B508" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C508" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D508" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E508" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7">
+      <c r="A509" s="7">
+        <v>1657</v>
+      </c>
+      <c r="B509" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C509" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D509" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E509" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7">
+      <c r="A510" s="7">
+        <v>1658</v>
+      </c>
+      <c r="B510" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C510" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D510" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E510" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7">
+      <c r="A511" s="7">
+        <v>1659</v>
+      </c>
+      <c r="B511" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C511" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D511" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E511" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7">
+      <c r="A512" s="7">
+        <v>1660</v>
+      </c>
+      <c r="B512" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C512" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D512" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E512" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7">
+      <c r="A513" s="7">
+        <v>1661</v>
+      </c>
+      <c r="B513" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C513" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D513" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E513" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7">
+      <c r="A514" s="7">
+        <v>1662</v>
+      </c>
+      <c r="B514" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C514" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D514" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E514" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7">
+      <c r="A515" s="7">
+        <v>1663</v>
+      </c>
+      <c r="B515" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C515" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D515" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E515" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7">
+      <c r="A516" s="7">
+        <v>1664</v>
+      </c>
+      <c r="B516" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C516" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D516" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E516" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7">
+      <c r="A517" s="7">
+        <v>1665</v>
+      </c>
+      <c r="B517" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C517" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D517" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E517" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7">
+      <c r="A518" s="7">
+        <v>1666</v>
+      </c>
+      <c r="B518" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C518" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D518" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E518" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7">
+      <c r="A519" s="7">
+        <v>1667</v>
+      </c>
+      <c r="B519" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C519" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D519" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E519" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7">
+      <c r="A520" s="7">
+        <v>1668</v>
+      </c>
+      <c r="B520" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C520" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D520" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E520" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7">
+      <c r="A521" s="7">
+        <v>1669</v>
+      </c>
+      <c r="B521" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C521" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D521" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E521" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7">
+      <c r="A522" s="7">
+        <v>1670</v>
+      </c>
+      <c r="B522" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C522" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D522" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E522" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7">
+      <c r="A523" s="7">
+        <v>1671</v>
+      </c>
+      <c r="B523" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C523" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D523" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E523" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7">
+      <c r="A524" s="7">
+        <v>1672</v>
+      </c>
+      <c r="B524" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C524" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D524" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E524" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7">
+      <c r="A525" s="7">
+        <v>1673</v>
+      </c>
+      <c r="B525" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C525" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D525" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E525" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7">
+      <c r="A526" s="7">
+        <v>1674</v>
+      </c>
+      <c r="B526" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C526" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D526" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E526" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7">
+      <c r="A527" s="7">
+        <v>1675</v>
+      </c>
+      <c r="B527" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C527" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D527" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E527" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7">
+      <c r="A528" s="7">
+        <v>1676</v>
+      </c>
+      <c r="B528" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C528" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D528" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E528" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7">
+      <c r="A529" s="7">
+        <v>1677</v>
+      </c>
+      <c r="B529" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C529" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D529" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E529" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7">
+      <c r="A530" s="7">
+        <v>1678</v>
+      </c>
+      <c r="B530" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C530" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D530" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E530" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7">
+      <c r="A531" s="7">
+        <v>1679</v>
+      </c>
+      <c r="B531" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C531" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D531" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E531" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7">
+      <c r="A532" s="7">
+        <v>1680</v>
+      </c>
+      <c r="B532" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C532" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D532" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E532" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7">
+      <c r="A533" s="7">
+        <v>1681</v>
+      </c>
+      <c r="B533" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C533" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D533" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E533" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7">
+      <c r="A534" s="7">
+        <v>1682</v>
+      </c>
+      <c r="B534" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C534" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D534" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E534" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7">
+      <c r="A535" s="7">
+        <v>1683</v>
+      </c>
+      <c r="B535" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C535" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D535" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E535" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7">
+      <c r="A536" s="7">
+        <v>1684</v>
+      </c>
+      <c r="B536" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C536" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D536" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E536" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7">
+      <c r="A537" s="7">
+        <v>1685</v>
+      </c>
+      <c r="B537" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C537" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D537" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E537" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7">
+      <c r="A538" s="7">
+        <v>1686</v>
+      </c>
+      <c r="B538" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C538" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D538" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E538" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7">
+      <c r="A539" s="7">
+        <v>1687</v>
+      </c>
+      <c r="B539" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C539" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D539" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E539" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7">
+      <c r="A540" s="7">
+        <v>1688</v>
+      </c>
+      <c r="B540" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C540" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D540" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E540" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7">
+      <c r="A541" s="7">
+        <v>1689</v>
+      </c>
+      <c r="B541" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C541" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D541" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E541" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7">
+      <c r="A542" s="7">
+        <v>1690</v>
+      </c>
+      <c r="B542" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C542" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D542" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E542" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7">
+      <c r="A543" s="7">
+        <v>1691</v>
+      </c>
+      <c r="B543" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C543" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D543" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E543" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7">
+      <c r="A544" s="7">
+        <v>1692</v>
+      </c>
+      <c r="B544" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C544" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D544" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E544" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7">
+      <c r="A545" s="7">
+        <v>1693</v>
+      </c>
+      <c r="B545" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C545" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D545" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E545" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7">
+      <c r="A546" s="7">
+        <v>1694</v>
+      </c>
+      <c r="B546" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C546" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D546" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E546" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7">
+      <c r="A547" s="7">
+        <v>1695</v>
+      </c>
+      <c r="B547" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C547" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D547" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E547" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7">
+      <c r="A548" s="7">
+        <v>1696</v>
+      </c>
+      <c r="B548" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C548" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D548" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E548" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7">
+      <c r="A549" s="7">
+        <v>1697</v>
+      </c>
+      <c r="B549" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C549" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D549" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E549" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7">
+      <c r="A550" s="7">
+        <v>1698</v>
+      </c>
+      <c r="B550" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C550" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D550" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E550" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7">
+      <c r="A551" s="7">
+        <v>1699</v>
+      </c>
+      <c r="B551" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C551" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D551" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E551" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7">
+      <c r="A552" s="7">
+        <v>1700</v>
+      </c>
+      <c r="B552" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C552" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D552" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E552" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7">
+      <c r="A553" s="7">
+        <v>1701</v>
+      </c>
+      <c r="B553" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C553" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D553" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E553" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7">
+      <c r="A554" s="7">
+        <v>1702</v>
+      </c>
+      <c r="B554" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C554" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D554" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E554" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7">
+      <c r="A555" s="7">
+        <v>1703</v>
+      </c>
+      <c r="B555" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C555" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D555" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E555" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7">
+      <c r="A556" s="7">
+        <v>1704</v>
+      </c>
+      <c r="B556" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C556" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D556" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E556" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7">
+      <c r="A557" s="7">
+        <v>1705</v>
+      </c>
+      <c r="B557" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C557" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D557" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E557" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7">
+      <c r="A558" s="7">
+        <v>1706</v>
+      </c>
+      <c r="B558" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C558" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D558" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E558" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7">
+      <c r="A559" s="7">
+        <v>1707</v>
+      </c>
+      <c r="B559" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C559" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D559" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E559" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7">
+      <c r="A560" s="7">
+        <v>1708</v>
+      </c>
+      <c r="B560" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C560" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D560" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E560" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7">
+      <c r="A561" s="7">
+        <v>1709</v>
+      </c>
+      <c r="B561" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C561" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D561" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E561" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7">
+      <c r="A562" s="7">
+        <v>1710</v>
+      </c>
+      <c r="B562" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C562" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D562" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E562" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7">
+      <c r="A563" s="7">
+        <v>1711</v>
+      </c>
+      <c r="B563" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C563" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D563" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E563" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7">
+      <c r="A564" s="7">
+        <v>1712</v>
+      </c>
+      <c r="B564" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C564" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D564" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E564" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7">
+      <c r="A565" s="7">
+        <v>1713</v>
+      </c>
+      <c r="B565" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C565" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D565" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E565" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7">
+      <c r="A566" s="7">
+        <v>1714</v>
+      </c>
+      <c r="B566" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C566" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D566" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E566" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7">
+      <c r="A567" s="7">
+        <v>1715</v>
+      </c>
+      <c r="B567" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C567" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D567" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E567" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7">
+      <c r="A568" s="7">
+        <v>1716</v>
+      </c>
+      <c r="B568" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C568" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D568" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E568" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7">
+      <c r="A569" s="7">
+        <v>1717</v>
+      </c>
+      <c r="B569" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C569" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D569" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E569" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7">
+      <c r="A570" s="7">
+        <v>1718</v>
+      </c>
+      <c r="B570" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C570" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D570" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E570" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7">
+      <c r="A571" s="7">
+        <v>1719</v>
+      </c>
+      <c r="B571" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C571" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D571" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E571" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7">
+      <c r="A572" s="7">
+        <v>1720</v>
+      </c>
+      <c r="B572" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C572" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D572" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E572" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7">
+      <c r="A573" s="7">
+        <v>1721</v>
+      </c>
+      <c r="B573" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C573" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D573" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E573" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7">
+      <c r="A574" s="7">
+        <v>1722</v>
+      </c>
+      <c r="B574" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C574" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D574" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E574" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7">
+      <c r="A575" s="7">
+        <v>1723</v>
+      </c>
+      <c r="B575" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C575" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D575" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E575" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7">
+      <c r="A576" s="7">
+        <v>1724</v>
+      </c>
+      <c r="B576" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C576" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D576" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E576" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7">
+      <c r="A577" s="7">
+        <v>1725</v>
+      </c>
+      <c r="B577" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C577" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D577" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E577" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7">
+      <c r="A578" s="7">
+        <v>1726</v>
+      </c>
+      <c r="B578" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C578" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D578" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E578" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7">
+      <c r="A579" s="7">
+        <v>1727</v>
+      </c>
+      <c r="B579" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C579" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D579" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E579" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7">
+      <c r="A580" s="7">
+        <v>1728</v>
+      </c>
+      <c r="B580" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C580" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D580" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E580" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7">
+      <c r="A581" s="7">
+        <v>1729</v>
+      </c>
+      <c r="B581" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C581" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D581" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E581" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7">
+      <c r="A582" s="7">
+        <v>1730</v>
+      </c>
+      <c r="B582" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C582" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D582" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E582" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7">
+      <c r="A583" s="7">
+        <v>1731</v>
+      </c>
+      <c r="B583" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C583" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D583" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E583" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7">
+      <c r="A584" s="7">
+        <v>1732</v>
+      </c>
+      <c r="B584" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C584" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D584" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E584" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7">
+      <c r="A585" s="7">
+        <v>1733</v>
+      </c>
+      <c r="B585" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C585" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D585" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E585" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7">
+      <c r="A586" s="7">
+        <v>1734</v>
+      </c>
+      <c r="B586" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C586" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D586" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E586" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7">
+      <c r="A587" s="7">
+        <v>1735</v>
+      </c>
+      <c r="B587" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C587" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D587" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E587" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7">
+      <c r="A588" s="7">
+        <v>1736</v>
+      </c>
+      <c r="B588" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C588" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D588" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E588" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7">
+      <c r="A589" s="7">
+        <v>1737</v>
+      </c>
+      <c r="B589" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C589" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D589" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E589" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7">
+      <c r="A590" s="7">
+        <v>1738</v>
+      </c>
+      <c r="B590" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C590" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D590" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E590" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7">
+      <c r="A591" s="7">
+        <v>1739</v>
+      </c>
+      <c r="B591" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C591" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D591" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E591" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7">
+      <c r="A592" s="7">
+        <v>1740</v>
+      </c>
+      <c r="B592" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C592" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D592" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E592" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="593" spans="1:7">
+      <c r="A593" s="7">
+        <v>1741</v>
+      </c>
+      <c r="B593" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C593" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D593" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E593" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="594" spans="1:7">
+      <c r="A594" s="7">
+        <v>1742</v>
+      </c>
+      <c r="B594" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C594" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D594" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E594" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="595" spans="1:7">
+      <c r="A595" s="7">
+        <v>1743</v>
+      </c>
+      <c r="B595" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C595" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D595" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E595" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="596" spans="1:7">
+      <c r="A596" s="7">
+        <v>1744</v>
+      </c>
+      <c r="B596" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C596" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D596" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E596" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="597" spans="1:7">
+      <c r="A597" s="7">
+        <v>1745</v>
+      </c>
+      <c r="B597" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C597" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D597" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E597" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7">
+      <c r="A598" s="7">
+        <v>1746</v>
+      </c>
+      <c r="B598" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C598" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D598" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E598" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="599" spans="1:7">
+      <c r="A599" s="7">
+        <v>1747</v>
+      </c>
+      <c r="B599" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C599" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D599" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E599" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7">
+      <c r="A600" s="7">
+        <v>1748</v>
+      </c>
+      <c r="B600" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C600" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D600" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E600" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7">
+      <c r="A601" s="7">
+        <v>1749</v>
+      </c>
+      <c r="B601" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C601" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D601" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E601" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7">
+      <c r="A602" s="7">
+        <v>1750</v>
+      </c>
+      <c r="B602" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C602" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D602" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E602" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7">
+      <c r="A603" s="7">
+        <v>1751</v>
+      </c>
+      <c r="B603" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C603" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D603" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E603" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7">
+      <c r="A604" s="7">
+        <v>1752</v>
+      </c>
+      <c r="B604" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C604" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D604" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E604" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="605" spans="1:7">
+      <c r="A605" s="7">
+        <v>1753</v>
+      </c>
+      <c r="B605" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C605" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D605" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E605" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="606" spans="1:7">
+      <c r="A606" s="7">
+        <v>1754</v>
+      </c>
+      <c r="B606" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C606" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D606" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E606" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="607" spans="1:7">
+      <c r="A607" s="7">
+        <v>1755</v>
+      </c>
+      <c r="B607" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C607" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D607" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E607" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7">
+      <c r="A608" s="7">
+        <v>1756</v>
+      </c>
+      <c r="B608" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C608" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D608" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E608" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7">
+      <c r="A609" s="7">
+        <v>1757</v>
+      </c>
+      <c r="B609" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C609" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D609" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E609" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7">
+      <c r="A610" s="7">
+        <v>1758</v>
+      </c>
+      <c r="B610" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C610" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D610" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E610" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="611" spans="1:7">
+      <c r="A611" s="7">
+        <v>1759</v>
+      </c>
+      <c r="B611" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C611" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D611" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E611" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="612" spans="1:7">
+      <c r="A612" s="7">
+        <v>1760</v>
+      </c>
+      <c r="B612" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C612" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D612" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E612" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7">
+      <c r="A613" s="7">
+        <v>1761</v>
+      </c>
+      <c r="B613" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C613" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D613" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E613" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="614" spans="1:7">
+      <c r="A614" s="7">
+        <v>1762</v>
+      </c>
+      <c r="B614" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C614" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D614" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E614" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7">
+      <c r="A615" s="7">
+        <v>1763</v>
+      </c>
+      <c r="B615" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C615" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D615" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E615" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="616" spans="1:7">
+      <c r="A616" s="7">
+        <v>1764</v>
+      </c>
+      <c r="B616" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C616" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D616" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E616" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7">
+      <c r="A617" s="7">
+        <v>1765</v>
+      </c>
+      <c r="B617" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C617" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D617" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E617" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7">
+      <c r="A618" s="7">
+        <v>1766</v>
+      </c>
+      <c r="B618" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C618" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D618" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E618" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7">
+      <c r="A619" s="7">
+        <v>1767</v>
+      </c>
+      <c r="B619" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C619" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D619" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E619" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7">
+      <c r="A620" s="7">
+        <v>1768</v>
+      </c>
+      <c r="B620" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C620" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D620" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E620" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7">
+      <c r="A621" s="7">
+        <v>1769</v>
+      </c>
+      <c r="B621" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C621" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D621" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E621" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7">
+      <c r="A622" s="7">
+        <v>1770</v>
+      </c>
+      <c r="B622" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C622" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D622" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E622" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7">
+      <c r="A623" s="7">
+        <v>1771</v>
+      </c>
+      <c r="B623" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C623" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D623" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E623" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7">
+      <c r="A624" s="7">
+        <v>1772</v>
+      </c>
+      <c r="B624" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C624" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D624" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E624" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="625" spans="1:7">
+      <c r="A625" s="7">
+        <v>1773</v>
+      </c>
+      <c r="B625" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C625" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D625" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E625" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="626" spans="1:7">
+      <c r="A626" s="7">
+        <v>1774</v>
+      </c>
+      <c r="B626" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C626" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D626" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E626" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="627" spans="1:7">
+      <c r="A627" s="7">
+        <v>1775</v>
+      </c>
+      <c r="B627" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C627" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D627" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E627" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="628" spans="1:7">
+      <c r="A628" s="7">
+        <v>1776</v>
+      </c>
+      <c r="B628" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C628" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D628" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E628" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="629" spans="1:7">
+      <c r="A629" s="7">
+        <v>1777</v>
+      </c>
+      <c r="B629" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C629" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D629" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E629" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="630" spans="1:7">
+      <c r="A630" s="7">
+        <v>1778</v>
+      </c>
+      <c r="B630" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C630" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D630" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E630" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="631" spans="1:7">
+      <c r="A631" s="7">
+        <v>1779</v>
+      </c>
+      <c r="B631" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C631" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D631" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E631" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7">
+      <c r="A632" s="7">
+        <v>1780</v>
+      </c>
+      <c r="B632" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C632" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D632" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E632" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="633" spans="1:7">
+      <c r="A633" s="7">
+        <v>1781</v>
+      </c>
+      <c r="B633" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C633" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D633" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E633" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7">
+      <c r="A634" s="7">
+        <v>1782</v>
+      </c>
+      <c r="B634" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C634" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D634" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E634" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="635" spans="1:7">
+      <c r="A635" s="7">
+        <v>1783</v>
+      </c>
+      <c r="B635" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C635" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D635" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E635" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="636" spans="1:7">
+      <c r="A636" s="7">
+        <v>1784</v>
+      </c>
+      <c r="B636" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C636" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D636" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E636" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="637" spans="1:7">
+      <c r="A637" s="7">
+        <v>1785</v>
+      </c>
+      <c r="B637" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C637" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D637" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E637" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7">
+      <c r="A638" s="7">
+        <v>1786</v>
+      </c>
+      <c r="B638" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C638" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D638" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E638" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="639" spans="1:7">
+      <c r="A639" s="7">
+        <v>1787</v>
+      </c>
+      <c r="B639" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C639" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D639" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E639" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="640" spans="1:7">
+      <c r="A640" s="7">
+        <v>1788</v>
+      </c>
+      <c r="B640" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C640" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D640" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E640" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="641" spans="1:7">
+      <c r="A641" s="7">
+        <v>1789</v>
+      </c>
+      <c r="B641" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C641" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D641" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E641" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7">
+      <c r="A642" s="7">
+        <v>1790</v>
+      </c>
+      <c r="B642" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C642" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D642" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E642" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7">
+      <c r="A643" s="7">
+        <v>1791</v>
+      </c>
+      <c r="B643" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C643" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D643" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E643" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="644" spans="1:7">
+      <c r="A644" s="7">
+        <v>1792</v>
+      </c>
+      <c r="B644" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C644" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D644" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E644" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7">
+      <c r="A645" s="7">
+        <v>1793</v>
+      </c>
+      <c r="B645" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C645" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D645" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E645" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="646" spans="1:7">
+      <c r="A646" s="7">
+        <v>1794</v>
+      </c>
+      <c r="B646" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C646" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D646" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E646" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="647" spans="1:7">
+      <c r="A647" s="7">
+        <v>1795</v>
+      </c>
+      <c r="B647" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C647" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D647" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E647" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="648" spans="1:7">
+      <c r="A648" s="7">
+        <v>1796</v>
+      </c>
+      <c r="B648" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C648" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D648" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E648" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="649" spans="1:7">
+      <c r="A649" s="7">
+        <v>1797</v>
+      </c>
+      <c r="B649" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C649" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D649" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E649" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="650" spans="1:7">
+      <c r="A650" s="7">
+        <v>1798</v>
+      </c>
+      <c r="B650" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C650" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D650" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E650" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="651" spans="1:7">
+      <c r="A651" s="7">
+        <v>1799</v>
+      </c>
+      <c r="B651" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C651" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D651" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E651" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="652" spans="1:7">
+      <c r="A652" s="7">
+        <v>1800</v>
+      </c>
+      <c r="B652" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C652" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D652" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E652" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="653" spans="1:7">
+      <c r="A653" s="7">
+        <v>1801</v>
+      </c>
+      <c r="B653" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C653" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D653" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E653" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="654" spans="1:7">
+      <c r="A654" s="7">
+        <v>1802</v>
+      </c>
+      <c r="B654" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C654" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D654" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E654" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="655" spans="1:7">
+      <c r="A655" s="7">
+        <v>1803</v>
+      </c>
+      <c r="B655" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C655" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D655" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E655" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="656" spans="1:7">
+      <c r="A656" s="7">
+        <v>1804</v>
+      </c>
+      <c r="B656" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C656" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D656" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E656" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="657" spans="1:7">
+      <c r="A657" s="7">
+        <v>1805</v>
+      </c>
+      <c r="B657" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C657" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D657" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E657" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="658" spans="1:7">
+      <c r="A658" s="7">
+        <v>1806</v>
+      </c>
+      <c r="B658" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C658" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D658" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E658" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="659" spans="1:7">
+      <c r="A659" s="7">
+        <v>1807</v>
+      </c>
+      <c r="B659" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C659" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D659" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E659" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="660" spans="1:7">
+      <c r="A660" s="7">
+        <v>1808</v>
+      </c>
+      <c r="B660" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C660" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D660" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E660" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="661" spans="1:7">
+      <c r="A661" s="7">
+        <v>1809</v>
+      </c>
+      <c r="B661" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C661" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D661" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E661" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="662" spans="1:7">
+      <c r="A662" s="7">
+        <v>1810</v>
+      </c>
+      <c r="B662" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C662" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D662" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E662" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="663" spans="1:7">
+      <c r="A663" s="7">
+        <v>1811</v>
+      </c>
+      <c r="B663" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C663" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D663" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E663" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="664" spans="1:7">
+      <c r="A664" s="7">
+        <v>1812</v>
+      </c>
+      <c r="B664" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C664" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D664" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E664" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7">
+      <c r="A665" s="7">
+        <v>1813</v>
+      </c>
+      <c r="B665" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C665" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D665" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E665" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="666" spans="1:7">
+      <c r="A666" s="7">
+        <v>1814</v>
+      </c>
+      <c r="B666" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C666" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D666" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E666" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="667" spans="1:7">
+      <c r="A667" s="7">
+        <v>1815</v>
+      </c>
+      <c r="B667" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C667" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D667" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E667" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="668" spans="1:7">
+      <c r="A668" s="7">
+        <v>1816</v>
+      </c>
+      <c r="B668" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C668" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D668" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E668" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7">
+      <c r="A669" s="7">
+        <v>1817</v>
+      </c>
+      <c r="B669" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C669" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D669" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E669" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="670" spans="1:7">
+      <c r="A670" s="7">
+        <v>1818</v>
+      </c>
+      <c r="B670" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C670" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D670" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E670" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="671" spans="1:7">
+      <c r="A671" s="7">
+        <v>1819</v>
+      </c>
+      <c r="B671" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C671" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D671" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E671" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7">
+      <c r="A672" s="7">
+        <v>1820</v>
+      </c>
+      <c r="B672" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C672" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D672" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E672" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7">
+      <c r="A673" s="7">
+        <v>1821</v>
+      </c>
+      <c r="B673" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C673" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D673" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E673" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7">
+      <c r="A674" s="7">
+        <v>1822</v>
+      </c>
+      <c r="B674" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C674" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D674" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E674" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7">
+      <c r="A675" s="7">
+        <v>1823</v>
+      </c>
+      <c r="B675" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C675" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D675" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E675" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7">
+      <c r="A676" s="7">
+        <v>1824</v>
+      </c>
+      <c r="B676" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C676" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D676" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E676" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7">
+      <c r="A677" s="7">
+        <v>1825</v>
+      </c>
+      <c r="B677" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C677" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D677" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E677" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7">
+      <c r="A678" s="7">
+        <v>1826</v>
+      </c>
+      <c r="B678" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C678" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D678" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E678" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7">
+      <c r="A679" s="7">
+        <v>1827</v>
+      </c>
+      <c r="B679" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C679" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D679" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E679" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="680" spans="1:7">
+      <c r="A680" s="7">
+        <v>1828</v>
+      </c>
+      <c r="B680" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C680" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D680" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E680" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="681" spans="1:7">
+      <c r="A681" s="7">
+        <v>1829</v>
+      </c>
+      <c r="B681" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C681" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D681" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E681" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="682" spans="1:7">
+      <c r="A682" s="7">
+        <v>1830</v>
+      </c>
+      <c r="B682" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C682" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D682" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E682" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="683" spans="1:7">
+      <c r="A683" s="7">
+        <v>1831</v>
+      </c>
+      <c r="B683" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C683" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D683" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E683" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="684" spans="1:7">
+      <c r="A684" s="7">
+        <v>1832</v>
+      </c>
+      <c r="B684" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C684" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D684" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E684" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="685" spans="1:7">
+      <c r="A685" s="7">
+        <v>1833</v>
+      </c>
+      <c r="B685" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C685" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D685" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E685" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="686" spans="1:7">
+      <c r="A686" s="7">
+        <v>1834</v>
+      </c>
+      <c r="B686" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C686" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D686" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E686" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="687" spans="1:7">
+      <c r="A687" s="7">
+        <v>1835</v>
+      </c>
+      <c r="B687" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C687" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D687" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E687" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="688" spans="1:7">
+      <c r="A688" s="7">
+        <v>1836</v>
+      </c>
+      <c r="B688" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C688" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D688" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E688" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="689" spans="1:7">
+      <c r="A689" s="7">
+        <v>1837</v>
+      </c>
+      <c r="B689" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C689" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D689" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E689" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="690" spans="1:7">
+      <c r="A690" s="7">
+        <v>1838</v>
+      </c>
+      <c r="B690" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C690" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D690" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E690" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="691" spans="1:7">
+      <c r="A691" s="7">
+        <v>1839</v>
+      </c>
+      <c r="B691" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C691" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D691" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E691" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="692" spans="1:7">
+      <c r="A692" s="7">
+        <v>1840</v>
+      </c>
+      <c r="B692" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C692" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D692" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E692" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="693" spans="1:7">
+      <c r="A693" s="7">
+        <v>1841</v>
+      </c>
+      <c r="B693" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C693" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D693" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E693" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="694" spans="1:7">
+      <c r="A694" s="7">
+        <v>1842</v>
+      </c>
+      <c r="B694" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C694" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D694" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E694" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="695" spans="1:7">
+      <c r="A695" s="7">
+        <v>1843</v>
+      </c>
+      <c r="B695" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C695" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D695" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E695" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="696" spans="1:7">
+      <c r="A696" s="7">
+        <v>1844</v>
+      </c>
+      <c r="B696" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C696" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D696" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E696" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="697" spans="1:7">
+      <c r="A697" s="7">
+        <v>1845</v>
+      </c>
+      <c r="B697" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C697" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D697" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E697" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="698" spans="1:7">
+      <c r="A698" s="7">
+        <v>1846</v>
+      </c>
+      <c r="B698" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C698" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D698" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E698" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="699" spans="1:7">
+      <c r="A699" s="7">
+        <v>1847</v>
+      </c>
+      <c r="B699" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C699" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D699" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E699" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="700" spans="1:7">
+      <c r="A700" s="7">
+        <v>1848</v>
+      </c>
+      <c r="B700" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C700" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D700" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E700" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="701" spans="1:7">
+      <c r="A701" s="7">
+        <v>1849</v>
+      </c>
+      <c r="B701" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C701" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D701" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E701" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="702" spans="1:7">
+      <c r="A702" s="7">
+        <v>1850</v>
+      </c>
+      <c r="B702" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C702" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D702" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E702" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="703" spans="1:7">
+      <c r="A703" s="7">
+        <v>1851</v>
+      </c>
+      <c r="B703" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C703" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D703" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E703" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="704" spans="1:7">
+      <c r="A704" s="7">
+        <v>1852</v>
+      </c>
+      <c r="B704" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C704" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D704" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E704" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="705" spans="1:7">
+      <c r="A705" s="7">
+        <v>1853</v>
+      </c>
+      <c r="B705" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C705" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D705" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E705" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="706" spans="1:7">
+      <c r="A706" s="7">
+        <v>1854</v>
+      </c>
+      <c r="B706" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C706" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D706" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E706" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="707" spans="1:7">
+      <c r="A707" s="7">
+        <v>1855</v>
+      </c>
+      <c r="B707" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C707" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D707" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E707" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="708" spans="1:7">
+      <c r="A708" s="7">
+        <v>1856</v>
+      </c>
+      <c r="B708" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C708" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D708" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E708" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="709" spans="1:7">
+      <c r="A709" s="7">
+        <v>1857</v>
+      </c>
+      <c r="B709" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C709" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D709" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E709" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="710" spans="1:7">
+      <c r="A710" s="7">
+        <v>1858</v>
+      </c>
+      <c r="B710" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C710" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D710" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E710" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="711" spans="1:7">
+      <c r="A711" s="7">
+        <v>1859</v>
+      </c>
+      <c r="B711" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C711" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D711" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E711" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="712" spans="1:7">
+      <c r="A712" s="7">
+        <v>1860</v>
+      </c>
+      <c r="B712" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C712" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D712" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E712" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="713" spans="1:7">
+      <c r="A713" s="7">
+        <v>1861</v>
+      </c>
+      <c r="B713" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C713" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D713" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E713" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="714" spans="1:7">
+      <c r="A714" s="7">
+        <v>1862</v>
+      </c>
+      <c r="B714" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C714" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D714" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E714" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="715" spans="1:7">
+      <c r="A715" s="7">
+        <v>1863</v>
+      </c>
+      <c r="B715" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C715" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D715" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E715" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="716" spans="1:7">
+      <c r="A716" s="7">
+        <v>1864</v>
+      </c>
+      <c r="B716" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C716" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D716" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E716" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="717" spans="1:7">
+      <c r="A717" s="7">
+        <v>1865</v>
+      </c>
+      <c r="B717" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C717" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D717" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E717" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="718" spans="1:7">
+      <c r="A718" s="7">
+        <v>1866</v>
+      </c>
+      <c r="B718" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C718" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D718" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E718" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="719" spans="1:7">
+      <c r="A719" s="7">
+        <v>1867</v>
+      </c>
+      <c r="B719" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C719" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D719" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E719" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="720" spans="1:7">
+      <c r="A720" s="7">
+        <v>1868</v>
+      </c>
+      <c r="B720" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C720" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D720" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E720" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="721" spans="1:7">
+      <c r="A721" s="7">
+        <v>1869</v>
+      </c>
+      <c r="B721" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C721" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D721" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E721" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="722" spans="1:7">
+      <c r="A722" s="7">
+        <v>1870</v>
+      </c>
+      <c r="B722" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C722" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D722" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E722" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="723" spans="1:7">
+      <c r="A723" s="7">
+        <v>1871</v>
+      </c>
+      <c r="B723" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C723" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D723" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E723" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="724" spans="1:7">
+      <c r="A724" s="7">
+        <v>1872</v>
+      </c>
+      <c r="B724" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C724" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D724" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E724" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="725" spans="1:7">
+      <c r="A725" s="7">
+        <v>1873</v>
+      </c>
+      <c r="B725" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C725" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D725" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E725" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="726" spans="1:7">
+      <c r="A726" s="7">
+        <v>1874</v>
+      </c>
+      <c r="B726" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C726" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D726" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E726" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="727" spans="1:7">
+      <c r="A727" s="7">
+        <v>1875</v>
+      </c>
+      <c r="B727" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C727" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D727" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E727" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="728" spans="1:7">
+      <c r="A728" s="7">
+        <v>1876</v>
+      </c>
+      <c r="B728" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C728" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D728" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E728" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="729" spans="1:7">
+      <c r="A729" s="7">
+        <v>1877</v>
+      </c>
+      <c r="B729" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C729" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D729" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E729" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="730" spans="1:7">
+      <c r="A730" s="7">
+        <v>1878</v>
+      </c>
+      <c r="B730" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C730" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D730" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E730" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="731" spans="1:7">
+      <c r="A731" s="7">
+        <v>1879</v>
+      </c>
+      <c r="B731" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C731" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D731" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E731" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="732" spans="1:7">
+      <c r="A732" s="7">
+        <v>1880</v>
+      </c>
+      <c r="B732" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C732" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D732" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E732" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="733" spans="1:7">
+      <c r="A733" s="7">
+        <v>1881</v>
+      </c>
+      <c r="B733" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C733" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D733" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E733" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="734" spans="1:7">
+      <c r="A734" s="7">
+        <v>1882</v>
+      </c>
+      <c r="B734" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C734" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D734" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E734" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="735" spans="1:7">
+      <c r="A735" s="7">
+        <v>1883</v>
+      </c>
+      <c r="B735" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C735" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D735" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E735" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="736" spans="1:7">
+      <c r="A736" s="7">
+        <v>1884</v>
+      </c>
+      <c r="B736" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C736" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D736" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E736" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="737" spans="1:7">
+      <c r="A737" s="7">
+        <v>1885</v>
+      </c>
+      <c r="B737" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C737" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D737" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E737" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="738" spans="1:7">
+      <c r="A738" s="7">
+        <v>1886</v>
+      </c>
+      <c r="B738" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C738" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D738" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E738" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="739" spans="1:7">
+      <c r="A739" s="7">
+        <v>1887</v>
+      </c>
+      <c r="B739" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C739" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D739" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E739" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="740" spans="1:7">
+      <c r="A740" s="7">
+        <v>1888</v>
+      </c>
+      <c r="B740" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C740" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D740" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E740" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="741" spans="1:7">
+      <c r="A741" s="7">
+        <v>1889</v>
+      </c>
+      <c r="B741" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C741" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D741" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E741" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="742" spans="1:7">
+      <c r="A742" s="7">
+        <v>1890</v>
+      </c>
+      <c r="B742" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C742" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D742" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E742" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="743" spans="1:7">
+      <c r="A743" s="7">
+        <v>1891</v>
+      </c>
+      <c r="B743" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C743" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D743" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E743" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="744" spans="1:7">
+      <c r="A744" s="7">
+        <v>1892</v>
+      </c>
+      <c r="B744" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C744" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D744" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E744" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="745" spans="1:7">
+      <c r="A745" s="7">
+        <v>1893</v>
+      </c>
+      <c r="B745" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C745" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D745" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E745" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="746" spans="1:7">
+      <c r="A746" s="7">
+        <v>1894</v>
+      </c>
+      <c r="B746" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C746" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D746" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E746" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="747" spans="1:7">
+      <c r="A747" s="7">
+        <v>1895</v>
+      </c>
+      <c r="B747" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C747" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D747" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E747" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="748" spans="1:7">
+      <c r="A748" s="7">
+        <v>1896</v>
+      </c>
+      <c r="B748" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C748" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D748" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E748" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="749" spans="1:7">
+      <c r="A749" s="7">
+        <v>1897</v>
+      </c>
+      <c r="B749" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C749" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D749" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E749" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="750" spans="1:7">
+      <c r="A750" s="7">
+        <v>1898</v>
+      </c>
+      <c r="B750" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C750" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D750" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E750" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="751" spans="1:7">
+      <c r="A751" s="7">
+        <v>1899</v>
+      </c>
+      <c r="B751" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C751" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D751" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E751" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="752" spans="1:7">
+      <c r="A752" s="7">
+        <v>1900</v>
+      </c>
+      <c r="B752" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C752" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D752" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E752" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="753" spans="1:7">
+      <c r="A753" s="7">
+        <v>1901</v>
+      </c>
+      <c r="B753" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C753" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D753" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E753" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="754" spans="1:7">
+      <c r="A754" s="7">
+        <v>1902</v>
+      </c>
+      <c r="B754" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C754" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D754" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E754" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="755" spans="1:7">
+      <c r="A755" s="7">
+        <v>1903</v>
+      </c>
+      <c r="B755" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C755" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D755" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E755" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="756" spans="1:7">
+      <c r="A756" s="7">
+        <v>1904</v>
+      </c>
+      <c r="B756" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C756" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D756" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E756" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="757" spans="1:7">
+      <c r="A757" s="7">
+        <v>1905</v>
+      </c>
+      <c r="B757" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C757" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D757" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E757" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="758" spans="1:7">
+      <c r="A758" s="7">
+        <v>1906</v>
+      </c>
+      <c r="B758" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C758" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D758" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E758" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="759" spans="1:7">
+      <c r="A759" s="7">
+        <v>1907</v>
+      </c>
+      <c r="B759" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C759" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D759" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E759" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="760" spans="1:7">
+      <c r="A760" s="7">
+        <v>1908</v>
+      </c>
+      <c r="B760" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C760" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D760" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E760" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="761" spans="1:7">
+      <c r="A761" s="7">
+        <v>1909</v>
+      </c>
+      <c r="B761" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C761" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D761" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E761" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="762" spans="1:7">
+      <c r="A762" s="7">
+        <v>1910</v>
+      </c>
+      <c r="B762" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C762" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D762" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E762" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="763" spans="1:7">
+      <c r="A763" s="7">
+        <v>1911</v>
+      </c>
+      <c r="B763" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C763" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D763" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E763" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="764" spans="1:7">
+      <c r="A764" s="7">
+        <v>1912</v>
+      </c>
+      <c r="B764" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C764" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D764" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E764" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="765" spans="1:7">
+      <c r="A765" s="7">
+        <v>1913</v>
+      </c>
+      <c r="B765" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C765" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D765" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E765" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="766" spans="1:7">
+      <c r="A766" s="7">
+        <v>1914</v>
+      </c>
+      <c r="B766" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C766" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D766" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E766" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="767" spans="1:7">
+      <c r="A767" s="7">
+        <v>1915</v>
+      </c>
+      <c r="B767" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C767" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D767" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E767" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="768" spans="1:7">
+      <c r="A768" s="7">
+        <v>1916</v>
+      </c>
+      <c r="B768" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C768" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D768" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E768" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="769" spans="1:7">
+      <c r="A769" s="7">
+        <v>1917</v>
+      </c>
+      <c r="B769" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C769" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D769" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E769" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="770" spans="1:7">
+      <c r="A770" s="7">
+        <v>1918</v>
+      </c>
+      <c r="B770" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C770" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D770" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E770" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="771" spans="1:7">
+      <c r="A771" s="7">
+        <v>1919</v>
+      </c>
+      <c r="B771" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C771" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D771" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E771" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="772" spans="1:7">
+      <c r="A772" s="7">
+        <v>1920</v>
+      </c>
+      <c r="B772" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C772" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D772" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E772" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="773" spans="1:7">
+      <c r="A773" s="7">
+        <v>1921</v>
+      </c>
+      <c r="B773" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C773" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D773" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E773" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="774" spans="1:7">
+      <c r="A774" s="7">
+        <v>1922</v>
+      </c>
+      <c r="B774" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C774" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D774" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E774" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="775" spans="1:7">
+      <c r="A775" s="7">
+        <v>1923</v>
+      </c>
+      <c r="B775" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C775" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D775" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E775" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="776" spans="1:7">
+      <c r="A776" s="7">
+        <v>1924</v>
+      </c>
+      <c r="B776" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C776" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D776" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E776" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="777" spans="1:7">
+      <c r="A777" s="7">
+        <v>1925</v>
+      </c>
+      <c r="B777" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C777" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D777" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E777" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="778" spans="1:7">
+      <c r="A778" s="7">
+        <v>1926</v>
+      </c>
+      <c r="B778" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C778" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D778" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E778" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="779" spans="1:7">
+      <c r="A779" s="7">
+        <v>1927</v>
+      </c>
+      <c r="B779" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C779" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D779" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E779" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="780" spans="1:7">
+      <c r="A780" s="7">
+        <v>1928</v>
+      </c>
+      <c r="B780" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C780" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D780" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E780" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="781" spans="1:7">
+      <c r="A781" s="7">
+        <v>1929</v>
+      </c>
+      <c r="B781" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C781" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D781" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E781" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="782" spans="1:7">
+      <c r="A782" s="7">
+        <v>1930</v>
+      </c>
+      <c r="B782" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C782" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D782" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E782" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="783" spans="1:7">
+      <c r="A783" s="7">
+        <v>1931</v>
+      </c>
+      <c r="B783" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C783" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D783" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E783" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="784" spans="1:7">
+      <c r="A784" s="7">
+        <v>1932</v>
+      </c>
+      <c r="B784" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C784" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D784" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E784" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="785" spans="1:7">
+      <c r="A785" s="7">
+        <v>1933</v>
+      </c>
+      <c r="B785" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C785" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D785" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E785" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="786" spans="1:7">
+      <c r="A786" s="7">
+        <v>1934</v>
+      </c>
+      <c r="B786" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C786" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D786" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E786" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="787" spans="1:7">
+      <c r="A787" s="7">
+        <v>1935</v>
+      </c>
+      <c r="B787" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C787" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D787" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E787" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="788" spans="1:7">
+      <c r="A788" s="7">
+        <v>1936</v>
+      </c>
+      <c r="B788" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C788" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D788" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E788" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="789" spans="1:7">
+      <c r="A789" s="7">
+        <v>1937</v>
+      </c>
+      <c r="B789" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C789" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D789" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E789" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="790" spans="1:7">
+      <c r="A790" s="7">
+        <v>1938</v>
+      </c>
+      <c r="B790" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C790" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D790" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E790" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="791" spans="1:7">
+      <c r="A791" s="7">
+        <v>1939</v>
+      </c>
+      <c r="B791" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C791" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D791" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E791" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="792" spans="1:7">
+      <c r="A792" s="7">
+        <v>1940</v>
+      </c>
+      <c r="B792" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C792" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D792" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E792" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="793" spans="1:7">
+      <c r="A793" s="7">
+        <v>1941</v>
+      </c>
+      <c r="B793" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C793" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D793" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E793" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="794" spans="1:7">
+      <c r="A794" s="7">
+        <v>1942</v>
+      </c>
+      <c r="B794" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C794" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D794" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E794" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="795" spans="1:7">
+      <c r="A795" s="7">
+        <v>1943</v>
+      </c>
+      <c r="B795" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C795" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D795" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E795" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="796" spans="1:7">
+      <c r="A796" s="7">
+        <v>1944</v>
+      </c>
+      <c r="B796" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C796" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D796" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E796" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="797" spans="1:7">
+      <c r="A797" s="7">
+        <v>1945</v>
+      </c>
+      <c r="B797" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C797" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D797" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E797" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="798" spans="1:7">
+      <c r="A798" s="7">
+        <v>1946</v>
+      </c>
+      <c r="B798" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C798" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D798" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E798" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="799" spans="1:7">
+      <c r="A799" s="7">
+        <v>1947</v>
+      </c>
+      <c r="B799" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C799" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D799" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E799" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="800" spans="1:7">
+      <c r="A800" s="7">
+        <v>1948</v>
+      </c>
+      <c r="B800" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C800" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D800" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E800" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="801" spans="1:7">
+      <c r="A801" s="7">
+        <v>1949</v>
+      </c>
+      <c r="B801" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C801" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D801" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E801" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="802" spans="1:7">
+      <c r="A802" s="7">
+        <v>1950</v>
+      </c>
+      <c r="B802" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C802" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D802" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E802" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="803" spans="1:7">
+      <c r="A803" s="7">
+        <v>1951</v>
+      </c>
+      <c r="B803" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C803" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D803" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E803" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="804" spans="1:7">
+      <c r="A804" s="7">
+        <v>1952</v>
+      </c>
+      <c r="B804" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C804" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D804" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E804" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="805" spans="1:7">
+      <c r="A805" s="7">
+        <v>1953</v>
+      </c>
+      <c r="B805" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C805" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D805" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E805" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="806" spans="1:7">
+      <c r="A806" s="7">
+        <v>1954</v>
+      </c>
+      <c r="B806" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C806" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D806" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E806" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="807" spans="1:7">
+      <c r="A807" s="7">
+        <v>1955</v>
+      </c>
+      <c r="B807" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C807" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D807" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E807" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="808" spans="1:7">
+      <c r="A808" s="7">
+        <v>1956</v>
+      </c>
+      <c r="B808" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C808" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D808" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E808" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="809" spans="1:7">
+      <c r="A809" s="7">
+        <v>1957</v>
+      </c>
+      <c r="B809" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C809" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D809" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E809" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="810" spans="1:7">
+      <c r="A810" s="7">
+        <v>1958</v>
+      </c>
+      <c r="B810" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C810" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D810" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E810" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="811" spans="1:7">
+      <c r="A811" s="7">
+        <v>1959</v>
+      </c>
+      <c r="B811" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C811" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D811" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E811" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="812" spans="1:7">
+      <c r="A812" s="7">
+        <v>1960</v>
+      </c>
+      <c r="B812" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C812" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D812" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E812" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="813" spans="1:7">
+      <c r="A813" s="7">
+        <v>1961</v>
+      </c>
+      <c r="B813" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C813" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D813" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E813" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="814" spans="1:7">
+      <c r="A814" s="7">
+        <v>1962</v>
+      </c>
+      <c r="B814" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C814" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D814" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E814" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="815" spans="1:7">
+      <c r="A815" s="7">
+        <v>1963</v>
+      </c>
+      <c r="B815" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C815" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D815" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E815" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="816" spans="1:7">
+      <c r="A816" s="7">
+        <v>1964</v>
+      </c>
+      <c r="B816" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C816" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D816" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E816" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="817" spans="1:7">
+      <c r="A817" s="7">
+        <v>1965</v>
+      </c>
+      <c r="B817" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C817" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D817" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E817" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="818" spans="1:7">
+      <c r="A818" s="7">
+        <v>1966</v>
+      </c>
+      <c r="B818" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C818" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D818" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E818" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="819" spans="1:7">
+      <c r="A819" s="7">
+        <v>1967</v>
+      </c>
+      <c r="B819" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C819" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D819" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E819" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="820" spans="1:7">
+      <c r="A820" s="7">
+        <v>1968</v>
+      </c>
+      <c r="B820" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C820" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D820" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E820" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="821" spans="1:7">
+      <c r="A821" s="7">
+        <v>1969</v>
+      </c>
+      <c r="B821" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C821" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D821" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E821" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="822" spans="1:7">
+      <c r="A822" s="7">
+        <v>1970</v>
+      </c>
+      <c r="B822" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C822" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D822" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E822" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="823" spans="1:7">
+      <c r="A823" s="7">
+        <v>1971</v>
+      </c>
+      <c r="B823" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C823" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D823" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E823" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="824" spans="1:7">
+      <c r="A824" s="7">
+        <v>1972</v>
+      </c>
+      <c r="B824" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C824" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D824" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E824" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="825" spans="1:7">
+      <c r="A825" s="7">
+        <v>1973</v>
+      </c>
+      <c r="B825" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C825" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D825" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E825" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="826" spans="1:7">
+      <c r="A826" s="7">
+        <v>1974</v>
+      </c>
+      <c r="B826" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C826" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D826" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E826" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="827" spans="1:7">
+      <c r="A827" s="7">
+        <v>1975</v>
+      </c>
+      <c r="B827" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C827" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D827" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E827" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="828" spans="1:7">
+      <c r="A828" s="7">
+        <v>1976</v>
+      </c>
+      <c r="B828" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C828" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D828" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E828" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="829" spans="1:7">
+      <c r="A829" s="7">
+        <v>1977</v>
+      </c>
+      <c r="B829" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C829" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D829" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E829" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="830" spans="1:7">
+      <c r="A830" s="7">
+        <v>1978</v>
+      </c>
+      <c r="B830" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C830" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D830" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E830" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="831" spans="1:7">
+      <c r="A831" s="7">
+        <v>1979</v>
+      </c>
+      <c r="B831" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C831" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D831" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E831" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="832" spans="1:7">
+      <c r="A832" s="7">
+        <v>1980</v>
+      </c>
+      <c r="B832" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C832" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D832" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E832" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="833" spans="1:7">
+      <c r="A833" s="7">
+        <v>1981</v>
+      </c>
+      <c r="B833" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C833" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D833" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E833" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="834" spans="1:7">
+      <c r="A834" s="7">
+        <v>1982</v>
+      </c>
+      <c r="B834" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C834" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D834" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E834" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="835" spans="1:7">
+      <c r="A835" s="7">
+        <v>1983</v>
+      </c>
+      <c r="B835" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C835" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D835" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E835" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="836" spans="1:7">
+      <c r="A836" s="7">
+        <v>1984</v>
+      </c>
+      <c r="B836" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C836" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D836" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E836" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="837" spans="1:7">
+      <c r="A837" s="7">
+        <v>1985</v>
+      </c>
+      <c r="B837" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C837" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D837" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E837" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="838" spans="1:7">
+      <c r="A838" s="7">
+        <v>1986</v>
+      </c>
+      <c r="B838" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C838" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D838" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E838" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="839" spans="1:7">
+      <c r="A839" s="7">
+        <v>1987</v>
+      </c>
+      <c r="B839" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C839" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D839" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E839" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="840" spans="1:7">
+      <c r="A840" s="7">
+        <v>1988</v>
+      </c>
+      <c r="B840" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C840" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D840" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E840" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="841" spans="1:7">
+      <c r="A841" s="7">
+        <v>1989</v>
+      </c>
+      <c r="B841" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C841" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D841" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E841" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="842" spans="1:7">
+      <c r="A842" s="7">
+        <v>1990</v>
+      </c>
+      <c r="B842" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C842" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D842" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E842" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="843" spans="1:7">
+      <c r="A843" s="7">
+        <v>1991</v>
+      </c>
+      <c r="B843" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C843" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D843" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E843" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="844" spans="1:7">
+      <c r="A844" s="7">
+        <v>1992</v>
+      </c>
+      <c r="B844" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C844" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D844" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E844" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="845" spans="1:7">
+      <c r="A845" s="7">
+        <v>1993</v>
+      </c>
+      <c r="B845" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C845" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D845" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E845" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="846" spans="1:7">
+      <c r="A846" s="7">
+        <v>1994</v>
+      </c>
+      <c r="B846" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C846" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D846" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E846" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="847" spans="1:7">
+      <c r="A847" s="7">
+        <v>1995</v>
+      </c>
+      <c r="B847" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C847" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D847" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E847" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="848" spans="1:7">
+      <c r="A848" s="7">
+        <v>1996</v>
+      </c>
+      <c r="B848" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C848" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D848" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E848" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="849" spans="1:7">
+      <c r="A849" s="7">
+        <v>1997</v>
+      </c>
+      <c r="B849" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C849" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D849" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E849" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="850" spans="1:7">
+      <c r="A850" s="7">
+        <v>1998</v>
+      </c>
+      <c r="B850" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C850" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D850" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E850" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="851" spans="1:7">
+      <c r="A851" s="7">
+        <v>1999</v>
+      </c>
+      <c r="B851" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C851" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D851" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E851" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="852" spans="1:7">
+      <c r="A852" s="7">
+        <v>2000</v>
+      </c>
+      <c r="B852" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C852" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D852" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E852" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="853" spans="1:7">
+      <c r="A853" s="7">
+        <v>2001</v>
+      </c>
+      <c r="B853" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C853" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D853" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E853" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="854" spans="1:7">
+      <c r="A854" s="7">
+        <v>2002</v>
+      </c>
+      <c r="B854" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C854" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D854" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E854" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="855" spans="1:7">
+      <c r="A855" s="7">
+        <v>2003</v>
+      </c>
+      <c r="B855" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C855" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D855" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E855" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="856" spans="1:7">
+      <c r="A856" s="7">
+        <v>2004</v>
+      </c>
+      <c r="B856" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C856" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D856" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E856" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="857" spans="1:7">
+      <c r="A857" s="7">
+        <v>2005</v>
+      </c>
+      <c r="B857" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C857" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D857" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E857" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="858" spans="1:7">
+      <c r="A858" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B858" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C858" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D858" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E858" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="859" spans="1:7">
+      <c r="A859" s="7">
+        <v>2007</v>
+      </c>
+      <c r="B859" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C859" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D859" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E859" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="860" spans="1:7">
+      <c r="A860" s="7">
+        <v>2008</v>
+      </c>
+      <c r="B860" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C860" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D860" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E860" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="861" spans="1:7">
+      <c r="A861" s="7">
+        <v>2009</v>
+      </c>
+      <c r="B861" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C861" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D861" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E861" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="862" spans="1:7">
+      <c r="A862" s="7">
+        <v>2010</v>
+      </c>
+      <c r="B862" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C862" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D862" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E862" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="863" spans="1:7">
+      <c r="A863" s="7">
+        <v>2011</v>
+      </c>
+      <c r="B863" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C863" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D863" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E863" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="864" spans="1:7">
+      <c r="A864" s="7">
+        <v>2012</v>
+      </c>
+      <c r="B864" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C864" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D864" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E864" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="865" spans="1:7">
+      <c r="A865" s="7">
+        <v>2013</v>
+      </c>
+      <c r="B865" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C865" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D865" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E865" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="866" spans="1:7">
+      <c r="A866" s="7">
+        <v>2014</v>
+      </c>
+      <c r="B866" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C866" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D866" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E866" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7">
+      <c r="A867" s="7">
+        <v>2015</v>
+      </c>
+      <c r="B867" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C867" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D867" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E867" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="868" spans="1:7">
+      <c r="A868" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B868" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C868" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D868" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E868" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="869" spans="1:7">
+      <c r="A869" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B869" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C869" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D869" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E869" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="870" spans="1:7">
+      <c r="A870" s="7">
+        <v>2018</v>
+      </c>
+      <c r="B870" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C870" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D870" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E870" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="871" spans="1:7">
+      <c r="A871" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B871" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C871" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D871" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E871" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="872" spans="1:7">
+      <c r="A872" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B872" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C872" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D872" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E872" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="873" spans="1:7">
+      <c r="A873" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B873" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C873" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D873" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E873" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="874" spans="1:7">
+      <c r="A874" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B874" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C874" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D874" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E874" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="875" spans="1:7">
+      <c r="A875" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B875" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C875" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D875" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E875" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="876" spans="1:7">
+      <c r="A876" s="7">
+        <v>2024</v>
+      </c>
+      <c r="B876" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C876" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D876" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E876" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="877" spans="1:7">
+      <c r="A877" s="7">
+        <v>2025</v>
+      </c>
+      <c r="B877" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C877" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D877" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E877" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="878" spans="1:7">
+      <c r="A878" s="7">
+        <v>2026</v>
+      </c>
+      <c r="B878" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C878" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D878" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E878" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="879" spans="1:7">
+      <c r="A879" s="7">
+        <v>2027</v>
+      </c>
+      <c r="B879" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C879" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D879" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E879" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="880" spans="1:7">
+      <c r="A880" s="7">
+        <v>2028</v>
+      </c>
+      <c r="B880" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C880" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D880" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E880" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="881" spans="1:7">
+      <c r="A881" s="7">
+        <v>2029</v>
+      </c>
+      <c r="B881" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C881" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D881" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E881" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="882" spans="1:7">
+      <c r="A882" s="7">
+        <v>2030</v>
+      </c>
+      <c r="B882" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C882" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D882" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E882" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="883" spans="1:7">
+      <c r="A883" s="7">
+        <v>2031</v>
+      </c>
+      <c r="B883" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C883" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D883" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E883" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="884" spans="1:7">
+      <c r="A884" s="7"/>
+      <c r="B884" s="7"/>
+      <c r="C884" s="7"/>
+      <c r="D884" s="7"/>
+      <c r="E884" s="7"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
